--- a/Code/Results/Cases/Case_6_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017819947829332</v>
+        <v>1.020061952569123</v>
       </c>
       <c r="D2">
-        <v>1.038337052086513</v>
+        <v>1.04028713869119</v>
       </c>
       <c r="E2">
-        <v>1.021188555554833</v>
+        <v>1.023713255880959</v>
       </c>
       <c r="F2">
-        <v>1.042622030240472</v>
+        <v>1.044605911974865</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057251030255355</v>
+        <v>1.057981572462838</v>
       </c>
       <c r="J2">
-        <v>1.039480424268549</v>
+        <v>1.041658735316654</v>
       </c>
       <c r="K2">
-        <v>1.049286929158019</v>
+        <v>1.05121235405419</v>
       </c>
       <c r="L2">
-        <v>1.032360386169443</v>
+        <v>1.03485182417376</v>
       </c>
       <c r="M2">
-        <v>1.053517868808974</v>
+        <v>1.055476918654526</v>
       </c>
       <c r="N2">
-        <v>1.040956605701082</v>
+        <v>1.04313801020073</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024476561238906</v>
+        <v>1.024301835711353</v>
       </c>
       <c r="D3">
-        <v>1.043648911658926</v>
+        <v>1.043639307578515</v>
       </c>
       <c r="E3">
-        <v>1.026735809594942</v>
+        <v>1.027100174477235</v>
       </c>
       <c r="F3">
-        <v>1.048468205495486</v>
+        <v>1.048458441904195</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05977419473392</v>
+        <v>1.059549616908036</v>
       </c>
       <c r="J3">
-        <v>1.044321503499699</v>
+        <v>1.044151239660032</v>
       </c>
       <c r="K3">
-        <v>1.053752172455031</v>
+        <v>1.053742678886454</v>
       </c>
       <c r="L3">
-        <v>1.037037658108635</v>
+        <v>1.037397659264557</v>
       </c>
       <c r="M3">
-        <v>1.058516326864413</v>
+        <v>1.058506674350178</v>
       </c>
       <c r="N3">
-        <v>1.045804559820019</v>
+        <v>1.04563405418617</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028667821624258</v>
+        <v>1.026992661426545</v>
       </c>
       <c r="D4">
-        <v>1.046995636912604</v>
+        <v>1.045769070423547</v>
       </c>
       <c r="E4">
-        <v>1.030233653507055</v>
+        <v>1.029255206582648</v>
       </c>
       <c r="F4">
-        <v>1.052154146841441</v>
+        <v>1.050907758069459</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061349891646019</v>
+        <v>1.060535221820879</v>
       </c>
       <c r="J4">
-        <v>1.047365581480745</v>
+        <v>1.045730218206805</v>
       </c>
       <c r="K4">
-        <v>1.056558116142424</v>
+        <v>1.05534478644231</v>
       </c>
       <c r="L4">
-        <v>1.039980380690048</v>
+        <v>1.03901291711155</v>
       </c>
       <c r="M4">
-        <v>1.061661370401578</v>
+        <v>1.060428271530108</v>
       </c>
       <c r="N4">
-        <v>1.048852960740959</v>
+        <v>1.047215275063591</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030403436846229</v>
+        <v>1.028111690937802</v>
       </c>
       <c r="D5">
-        <v>1.048381964474372</v>
+        <v>1.046655287679398</v>
       </c>
       <c r="E5">
-        <v>1.031683267268509</v>
+        <v>1.030152707927386</v>
       </c>
       <c r="F5">
-        <v>1.053681616763853</v>
+        <v>1.051927353225913</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061999221601417</v>
+        <v>1.06094277785763</v>
       </c>
       <c r="J5">
-        <v>1.048625116940936</v>
+        <v>1.046386145165025</v>
       </c>
       <c r="K5">
-        <v>1.057718669589955</v>
+        <v>1.056010116446724</v>
       </c>
       <c r="L5">
-        <v>1.041198366587323</v>
+        <v>1.039684513552441</v>
       </c>
       <c r="M5">
-        <v>1.062963148081502</v>
+        <v>1.061227072739052</v>
       </c>
       <c r="N5">
-        <v>1.050114284885973</v>
+        <v>1.047872133513327</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030693345063195</v>
+        <v>1.028298877556952</v>
       </c>
       <c r="D6">
-        <v>1.048613552829801</v>
+        <v>1.046803559598907</v>
       </c>
       <c r="E6">
-        <v>1.031925468524092</v>
+        <v>1.030302913095101</v>
       </c>
       <c r="F6">
-        <v>1.053936820388846</v>
+        <v>1.052097964765132</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062107494240731</v>
+        <v>1.061010814417612</v>
       </c>
       <c r="J6">
-        <v>1.048835441264338</v>
+        <v>1.046495822720221</v>
       </c>
       <c r="K6">
-        <v>1.057912438398725</v>
+        <v>1.056121354062042</v>
       </c>
       <c r="L6">
-        <v>1.041401775340317</v>
+        <v>1.039796846400652</v>
       </c>
       <c r="M6">
-        <v>1.063180553243454</v>
+        <v>1.061360672435183</v>
       </c>
       <c r="N6">
-        <v>1.05032490789404</v>
+        <v>1.047981966823233</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028691114942184</v>
+        <v>1.02700766133143</v>
       </c>
       <c r="D7">
-        <v>1.047014240894447</v>
+        <v>1.045780947637694</v>
       </c>
       <c r="E7">
-        <v>1.030253104027307</v>
+        <v>1.029267231985666</v>
       </c>
       <c r="F7">
-        <v>1.052174642403751</v>
+        <v>1.050921421206811</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061358618781458</v>
+        <v>1.060540694091203</v>
       </c>
       <c r="J7">
-        <v>1.047382489570759</v>
+        <v>1.045739013389081</v>
       </c>
       <c r="K7">
-        <v>1.056573697293738</v>
+        <v>1.055353708525793</v>
       </c>
       <c r="L7">
-        <v>1.039996729490332</v>
+        <v>1.039021920037073</v>
       </c>
       <c r="M7">
-        <v>1.061678843728674</v>
+        <v>1.060438980322923</v>
       </c>
       <c r="N7">
-        <v>1.0488698928424</v>
+        <v>1.047224082736035</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020094468684914</v>
+        <v>1.021506000275387</v>
       </c>
       <c r="D8">
-        <v>1.04015156810813</v>
+        <v>1.041428330898849</v>
       </c>
       <c r="E8">
-        <v>1.023082898744576</v>
+        <v>1.024865612018377</v>
       </c>
       <c r="F8">
-        <v>1.044618531951365</v>
+        <v>1.045917104638975</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058115879081428</v>
+        <v>1.05851760663312</v>
       </c>
       <c r="J8">
-        <v>1.041135407710873</v>
+        <v>1.042508234298497</v>
       </c>
       <c r="K8">
-        <v>1.050813799376151</v>
+        <v>1.052074913541306</v>
       </c>
       <c r="L8">
-        <v>1.033959018081742</v>
+        <v>1.035718975989369</v>
       </c>
       <c r="M8">
-        <v>1.05522622168577</v>
+        <v>1.056509047387386</v>
       </c>
       <c r="N8">
-        <v>1.042613939409723</v>
+        <v>1.043988715568567</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0039895851026</v>
+        <v>1.011388451549166</v>
       </c>
       <c r="D9">
-        <v>1.02731692915434</v>
+        <v>1.033444282188983</v>
       </c>
       <c r="E9">
-        <v>1.009695093500381</v>
+        <v>1.016816805271564</v>
       </c>
       <c r="F9">
-        <v>1.030507252860677</v>
+        <v>1.036750214146042</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051938867114827</v>
+        <v>1.054722970666089</v>
       </c>
       <c r="J9">
-        <v>1.029402243185397</v>
+        <v>1.03654536587755</v>
       </c>
       <c r="K9">
-        <v>1.039981827276717</v>
+        <v>1.0460170911851</v>
       </c>
       <c r="L9">
-        <v>1.0226328088376</v>
+        <v>1.029642808941643</v>
       </c>
       <c r="M9">
-        <v>1.043124029063962</v>
+        <v>1.049273912175977</v>
       </c>
       <c r="N9">
-        <v>1.030864112444807</v>
+        <v>1.038017379190511</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9925045844276292</v>
+        <v>1.004330074926427</v>
       </c>
       <c r="D10">
-        <v>1.01818556875849</v>
+        <v>1.027891039075978</v>
       </c>
       <c r="E10">
-        <v>1.000184163352115</v>
+        <v>1.011235317933844</v>
       </c>
       <c r="F10">
-        <v>1.020480654242035</v>
+        <v>1.030382007720334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047468427817984</v>
+        <v>1.052027818560187</v>
       </c>
       <c r="J10">
-        <v>1.02101877565285</v>
+        <v>1.032372941899092</v>
       </c>
       <c r="K10">
-        <v>1.032234060824702</v>
+        <v>1.041774333283003</v>
       </c>
       <c r="L10">
-        <v>1.014550093468684</v>
+        <v>1.025404635683867</v>
       </c>
       <c r="M10">
-        <v>1.03448971483121</v>
+        <v>1.044223549591276</v>
       </c>
       <c r="N10">
-        <v>1.022468739426768</v>
+        <v>1.03383902989142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9873269271444555</v>
+        <v>1.00119242851088</v>
       </c>
       <c r="D11">
-        <v>1.014075754243147</v>
+        <v>1.025427119466731</v>
       </c>
       <c r="E11">
-        <v>0.9959066041548084</v>
+        <v>1.008762810235569</v>
       </c>
       <c r="F11">
-        <v>1.015970841838886</v>
+        <v>1.027558164876103</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045438551608378</v>
+        <v>1.050818925665748</v>
       </c>
       <c r="J11">
-        <v>1.017236592514015</v>
+        <v>1.030515685062761</v>
       </c>
       <c r="K11">
-        <v>1.028737016297396</v>
+        <v>1.039884936751204</v>
       </c>
       <c r="L11">
-        <v>1.010906131006747</v>
+        <v>1.02352134344514</v>
       </c>
       <c r="M11">
-        <v>1.030597728098213</v>
+        <v>1.041978437992004</v>
       </c>
       <c r="N11">
-        <v>1.018681185154053</v>
+        <v>1.031979135537351</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9853703647463724</v>
+        <v>1.000014111429156</v>
       </c>
       <c r="D12">
-        <v>1.012523890151461</v>
+        <v>1.024502575100274</v>
       </c>
       <c r="E12">
-        <v>0.9942918430076714</v>
+        <v>1.007835632460351</v>
       </c>
       <c r="F12">
-        <v>1.01426836339577</v>
+        <v>1.026498801074332</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044669404081058</v>
+        <v>1.050363357150877</v>
       </c>
       <c r="J12">
-        <v>1.015807046650423</v>
+        <v>1.029817874046163</v>
       </c>
       <c r="K12">
-        <v>1.027415022181664</v>
+        <v>1.03917493314231</v>
       </c>
       <c r="L12">
-        <v>1.009529225518558</v>
+        <v>1.022814238187613</v>
       </c>
       <c r="M12">
-        <v>1.029127216032623</v>
+        <v>1.041135345456685</v>
       </c>
       <c r="N12">
-        <v>1.017249609171364</v>
+        <v>1.03128033354907</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9857916084580057</v>
+        <v>1.000267456878264</v>
       </c>
       <c r="D13">
-        <v>1.012857947410637</v>
+        <v>1.024701322485496</v>
       </c>
       <c r="E13">
-        <v>0.9946394199515298</v>
+        <v>1.008034919374546</v>
       </c>
       <c r="F13">
-        <v>1.014634823272591</v>
+        <v>1.026726519906368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04483509248244</v>
+        <v>1.050461377758626</v>
       </c>
       <c r="J13">
-        <v>1.016114837238558</v>
+        <v>1.029967922112609</v>
       </c>
       <c r="K13">
-        <v>1.027699665718458</v>
+        <v>1.039327608098368</v>
       </c>
       <c r="L13">
-        <v>1.009825664074994</v>
+        <v>1.022966262682616</v>
       </c>
       <c r="M13">
-        <v>1.029443802189659</v>
+        <v>1.041316612849768</v>
       </c>
       <c r="N13">
-        <v>1.017557836857437</v>
+        <v>1.031430594700981</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9871658936045793</v>
+        <v>1.001095294535314</v>
       </c>
       <c r="D14">
-        <v>1.013948004306559</v>
+        <v>1.025350889299472</v>
       </c>
       <c r="E14">
-        <v>0.9957736676445648</v>
+        <v>1.008686350978598</v>
       </c>
       <c r="F14">
-        <v>1.015830684754782</v>
+        <v>1.027470813924291</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045375289200096</v>
+        <v>1.050781402924179</v>
       </c>
       <c r="J14">
-        <v>1.017118940450239</v>
+        <v>1.030458167899601</v>
       </c>
       <c r="K14">
-        <v>1.028628220107549</v>
+        <v>1.039826416943581</v>
       </c>
       <c r="L14">
-        <v>1.010792803102139</v>
+        <v>1.023463050272227</v>
       </c>
       <c r="M14">
-        <v>1.030476693441048</v>
+        <v>1.041908936945248</v>
       </c>
       <c r="N14">
-        <v>1.018563366010852</v>
+        <v>1.031921536693222</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880081335424599</v>
+        <v>1.001603629386461</v>
       </c>
       <c r="D15">
-        <v>1.014616212658367</v>
+        <v>1.02574985883898</v>
       </c>
       <c r="E15">
-        <v>0.9964690227724751</v>
+        <v>1.009086543524567</v>
       </c>
       <c r="F15">
-        <v>1.016563807070093</v>
+        <v>1.027927996379278</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045706080890537</v>
+        <v>1.050977707996966</v>
       </c>
       <c r="J15">
-        <v>1.017734273857952</v>
+        <v>1.030759161260406</v>
       </c>
       <c r="K15">
-        <v>1.029197227461681</v>
+        <v>1.040132652526162</v>
       </c>
       <c r="L15">
-        <v>1.011385536933193</v>
+        <v>1.023768124474475</v>
       </c>
       <c r="M15">
-        <v>1.03110974017868</v>
+        <v>1.042272661334446</v>
       </c>
       <c r="N15">
-        <v>1.019179573262582</v>
+        <v>1.032222957499124</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9928436818184938</v>
+        <v>1.004536543312377</v>
       </c>
       <c r="D16">
-        <v>1.018454883916344</v>
+        <v>1.028053275932362</v>
       </c>
       <c r="E16">
-        <v>1.000464533150081</v>
+        <v>1.011398202273322</v>
       </c>
       <c r="F16">
-        <v>1.020776240640061</v>
+        <v>1.030567977285852</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047601076215158</v>
+        <v>1.052107146353519</v>
       </c>
       <c r="J16">
-        <v>1.02126643118503</v>
+        <v>1.032495107466196</v>
       </c>
       <c r="K16">
-        <v>1.032463013526805</v>
+        <v>1.041898596243204</v>
       </c>
       <c r="L16">
-        <v>1.014788752270701</v>
+        <v>1.025528581321086</v>
       </c>
       <c r="M16">
-        <v>1.034744632482051</v>
+        <v>1.044371288669949</v>
       </c>
       <c r="N16">
-        <v>1.02271674665821</v>
+        <v>1.033961368947642</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9958203677078667</v>
+        <v>1.006354072924019</v>
       </c>
       <c r="D17">
-        <v>1.020819786801043</v>
+        <v>1.029481975161177</v>
       </c>
       <c r="E17">
-        <v>1.002926856147353</v>
+        <v>1.012833052752233</v>
       </c>
       <c r="F17">
-        <v>1.023372165453298</v>
+        <v>1.032205861268938</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048763867763115</v>
+        <v>1.052804237029724</v>
       </c>
       <c r="J17">
-        <v>1.023440115986396</v>
+        <v>1.033570244474945</v>
       </c>
       <c r="K17">
-        <v>1.034472358479494</v>
+        <v>1.042992097879128</v>
       </c>
       <c r="L17">
-        <v>1.016883760855895</v>
+        <v>1.026619752276315</v>
       </c>
       <c r="M17">
-        <v>1.036982441003403</v>
+        <v>1.045671824183278</v>
       </c>
       <c r="N17">
-        <v>1.024893518341319</v>
+        <v>1.035038032774263</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9975370711813759</v>
+        <v>1.007406405920755</v>
       </c>
       <c r="D18">
-        <v>1.02218429222932</v>
+        <v>1.030309616692306</v>
       </c>
       <c r="E18">
-        <v>1.004347864018511</v>
+        <v>1.013664632914305</v>
       </c>
       <c r="F18">
-        <v>1.02487024336069</v>
+        <v>1.033154842572872</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049433094987888</v>
+        <v>1.053206815013998</v>
       </c>
       <c r="J18">
-        <v>1.024693448996148</v>
+        <v>1.034192498922398</v>
       </c>
       <c r="K18">
-        <v>1.035630776340976</v>
+        <v>1.043624901649663</v>
       </c>
       <c r="L18">
-        <v>1.018091967343259</v>
+        <v>1.027251593174918</v>
       </c>
       <c r="M18">
-        <v>1.038273062021273</v>
+        <v>1.046424810758672</v>
       </c>
       <c r="N18">
-        <v>1.026148631227704</v>
+        <v>1.035661170894405</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9981191818317642</v>
+        <v>1.007763919740344</v>
       </c>
       <c r="D19">
-        <v>1.022647079306039</v>
+        <v>1.030590867546168</v>
       </c>
       <c r="E19">
-        <v>1.004829864795787</v>
+        <v>1.013947285950714</v>
       </c>
       <c r="F19">
-        <v>1.025378380455684</v>
+        <v>1.033477354872688</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049659785095908</v>
+        <v>1.053343408359331</v>
       </c>
       <c r="J19">
-        <v>1.025118389006177</v>
+        <v>1.034403858294175</v>
       </c>
       <c r="K19">
-        <v>1.036023508021805</v>
+        <v>1.043839830555889</v>
       </c>
       <c r="L19">
-        <v>1.018501647165879</v>
+        <v>1.0274662606787</v>
       </c>
       <c r="M19">
-        <v>1.038710696979387</v>
+        <v>1.04668062276421</v>
       </c>
       <c r="N19">
-        <v>1.026574174701289</v>
+        <v>1.035872830420734</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9955030372773759</v>
+        <v>1.006159880597648</v>
       </c>
       <c r="D20">
-        <v>1.020567609439069</v>
+        <v>1.029329281233415</v>
       </c>
       <c r="E20">
-        <v>1.002664260287648</v>
+        <v>1.012679662511809</v>
       </c>
       <c r="F20">
-        <v>1.023095324789758</v>
+        <v>1.03203079402283</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048640050110249</v>
+        <v>1.05272986362896</v>
       </c>
       <c r="J20">
-        <v>1.023208416722121</v>
+        <v>1.033455397030252</v>
       </c>
       <c r="K20">
-        <v>1.034258192880081</v>
+        <v>1.042875296897245</v>
       </c>
       <c r="L20">
-        <v>1.016660423110283</v>
+        <v>1.026503160249989</v>
       </c>
       <c r="M20">
-        <v>1.036743873709926</v>
+        <v>1.045532870459194</v>
       </c>
       <c r="N20">
-        <v>1.024661490037512</v>
+        <v>1.034923022233026</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9867621440124392</v>
+        <v>1.000851877183423</v>
       </c>
       <c r="D21">
-        <v>1.013627724144456</v>
+        <v>1.025159869268381</v>
       </c>
       <c r="E21">
-        <v>0.9954403913500056</v>
+        <v>1.008494766369367</v>
       </c>
       <c r="F21">
-        <v>1.015479305577738</v>
+        <v>1.027251930816584</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045216641988754</v>
+        <v>1.050687345811141</v>
       </c>
       <c r="J21">
-        <v>1.016823953915932</v>
+        <v>1.030314024889609</v>
       </c>
       <c r="K21">
-        <v>1.02835543425017</v>
+        <v>1.039679759361988</v>
       </c>
       <c r="L21">
-        <v>1.010508664890007</v>
+        <v>1.023316970381592</v>
       </c>
       <c r="M21">
-        <v>1.030173234534307</v>
+        <v>1.041734768439253</v>
       </c>
       <c r="N21">
-        <v>1.018267960561831</v>
+        <v>1.031777188983622</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9810719209961827</v>
+        <v>0.9974398001741503</v>
       </c>
       <c r="D22">
-        <v>1.009116898588733</v>
+        <v>1.022484157445818</v>
       </c>
       <c r="E22">
-        <v>0.9907475581469732</v>
+        <v>1.005812544476972</v>
       </c>
       <c r="F22">
-        <v>1.010531475140801</v>
+        <v>1.024186468857136</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042975901723892</v>
+        <v>1.04936521187182</v>
       </c>
       <c r="J22">
-        <v>1.012665968092776</v>
+        <v>1.028292775614322</v>
       </c>
       <c r="K22">
-        <v>1.024509885928104</v>
+        <v>1.037622981189139</v>
       </c>
       <c r="L22">
-        <v>1.006504563355688</v>
+        <v>1.021269726507599</v>
       </c>
       <c r="M22">
-        <v>1.025897149159816</v>
+        <v>1.03929354631484</v>
       </c>
       <c r="N22">
-        <v>1.014104069921877</v>
+        <v>1.029753069302525</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9841078044042078</v>
+        <v>0.9992559137364558</v>
       </c>
       <c r="D23">
-        <v>1.011522832173775</v>
+        <v>1.023907891608741</v>
       </c>
       <c r="E23">
-        <v>0.9932503343084056</v>
+        <v>1.007239420678888</v>
       </c>
       <c r="F23">
-        <v>1.013170266618739</v>
+        <v>1.025817463816958</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044172501329031</v>
+        <v>1.050069779085068</v>
       </c>
       <c r="J23">
-        <v>1.014884492771837</v>
+        <v>1.029368773225759</v>
       </c>
       <c r="K23">
-        <v>1.026561817684501</v>
+        <v>1.03871795340378</v>
       </c>
       <c r="L23">
-        <v>1.008640757152663</v>
+        <v>1.022359293508245</v>
       </c>
       <c r="M23">
-        <v>1.028178379922934</v>
+        <v>1.040592868975251</v>
       </c>
       <c r="N23">
-        <v>1.016325745160451</v>
+        <v>1.030830594953988</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9956464854520642</v>
+        <v>1.006247651813042</v>
       </c>
       <c r="D24">
-        <v>1.020681603448097</v>
+        <v>1.029398294614352</v>
       </c>
       <c r="E24">
-        <v>1.002782962953596</v>
+        <v>1.012748989443401</v>
       </c>
       <c r="F24">
-        <v>1.023220466712288</v>
+        <v>1.032109919021525</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048696025744278</v>
+        <v>1.052763482182855</v>
       </c>
       <c r="J24">
-        <v>1.02331315644574</v>
+        <v>1.033507306624719</v>
       </c>
       <c r="K24">
-        <v>1.034355006997219</v>
+        <v>1.042928089713024</v>
       </c>
       <c r="L24">
-        <v>1.016761382269912</v>
+        <v>1.026555857423141</v>
       </c>
       <c r="M24">
-        <v>1.036851717153348</v>
+        <v>1.045595674923305</v>
       </c>
       <c r="N24">
-        <v>1.024766378503552</v>
+        <v>1.034975005545071</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008276631272719</v>
+        <v>1.014057076933094</v>
       </c>
       <c r="D25">
-        <v>1.030730284756193</v>
+        <v>1.035547501805123</v>
       </c>
       <c r="E25">
-        <v>1.01325310200249</v>
+        <v>1.018934167312447</v>
       </c>
       <c r="F25">
-        <v>1.034257848156179</v>
+        <v>1.039163632117998</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053594623107942</v>
+        <v>1.055732283504104</v>
       </c>
       <c r="J25">
-        <v>1.03252862853399</v>
+        <v>1.038120451654782</v>
       </c>
       <c r="K25">
-        <v>1.042869572817034</v>
+        <v>1.047617958541803</v>
       </c>
       <c r="L25">
-        <v>1.025649106247902</v>
+        <v>1.031245496854532</v>
       </c>
       <c r="M25">
-        <v>1.046346652727191</v>
+        <v>1.051182949246475</v>
       </c>
       <c r="N25">
-        <v>1.033994937619197</v>
+        <v>1.039594701770211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020061952569123</v>
+        <v>1.012739112856967</v>
       </c>
       <c r="D2">
-        <v>1.04028713869119</v>
+        <v>1.033990450476663</v>
       </c>
       <c r="E2">
-        <v>1.023713255880959</v>
+        <v>1.01747004704409</v>
       </c>
       <c r="F2">
-        <v>1.044605911974865</v>
+        <v>1.038185956901525</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057981572462838</v>
+        <v>1.053679483821662</v>
       </c>
       <c r="J2">
-        <v>1.041658735316654</v>
+        <v>1.034545362680551</v>
       </c>
       <c r="K2">
-        <v>1.05121235405419</v>
+        <v>1.04499571506119</v>
       </c>
       <c r="L2">
-        <v>1.03485182417376</v>
+        <v>1.02869124554211</v>
       </c>
       <c r="M2">
-        <v>1.055476918654526</v>
+        <v>1.049137749621625</v>
       </c>
       <c r="N2">
-        <v>1.04313801020073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015398306112939</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042886146270284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024301835711353</v>
+        <v>1.016141552045386</v>
       </c>
       <c r="D3">
-        <v>1.043639307578515</v>
+        <v>1.036376303010321</v>
       </c>
       <c r="E3">
-        <v>1.027100174477235</v>
+        <v>1.020118459510827</v>
       </c>
       <c r="F3">
-        <v>1.048458441904195</v>
+        <v>1.041124167859053</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059549616908036</v>
+        <v>1.05464981797259</v>
       </c>
       <c r="J3">
-        <v>1.044151239660032</v>
+        <v>1.036201649324301</v>
       </c>
       <c r="K3">
-        <v>1.053742678886454</v>
+        <v>1.046563973416431</v>
       </c>
       <c r="L3">
-        <v>1.037397659264557</v>
+        <v>1.030500233027432</v>
       </c>
       <c r="M3">
-        <v>1.058506674350178</v>
+        <v>1.05125656698923</v>
       </c>
       <c r="N3">
-        <v>1.04563405418617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015952767968084</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043992378762542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026992661426545</v>
+        <v>1.018307765177854</v>
       </c>
       <c r="D4">
-        <v>1.045769070423547</v>
+        <v>1.037899043604897</v>
       </c>
       <c r="E4">
-        <v>1.029255206582648</v>
+        <v>1.021810250753884</v>
       </c>
       <c r="F4">
-        <v>1.050907758069459</v>
+        <v>1.042999907708008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060535221820879</v>
+        <v>1.055259235775382</v>
       </c>
       <c r="J4">
-        <v>1.045730218206805</v>
+        <v>1.037254473771406</v>
       </c>
       <c r="K4">
-        <v>1.05534478644231</v>
+        <v>1.047560605336914</v>
       </c>
       <c r="L4">
-        <v>1.03901291711155</v>
+        <v>1.031652383022824</v>
       </c>
       <c r="M4">
-        <v>1.060428271530108</v>
+        <v>1.052605648286685</v>
       </c>
       <c r="N4">
-        <v>1.047215275063591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.016305275292504</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044697964537537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028111690937802</v>
+        <v>1.019212975040404</v>
       </c>
       <c r="D5">
-        <v>1.046655287679398</v>
+        <v>1.038538176402351</v>
       </c>
       <c r="E5">
-        <v>1.030152707927386</v>
+        <v>1.022518868829112</v>
       </c>
       <c r="F5">
-        <v>1.051927353225913</v>
+        <v>1.043786058745216</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06094277785763</v>
+        <v>1.055513310611299</v>
       </c>
       <c r="J5">
-        <v>1.046386145165025</v>
+        <v>1.037695364839037</v>
       </c>
       <c r="K5">
-        <v>1.056010116446724</v>
+        <v>1.047979193562192</v>
       </c>
       <c r="L5">
-        <v>1.039684513552441</v>
+        <v>1.032134917640907</v>
       </c>
       <c r="M5">
-        <v>1.061227072739052</v>
+        <v>1.053171165902847</v>
       </c>
       <c r="N5">
-        <v>1.047872133513327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016453179533828</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.045001060408644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028298877556952</v>
+        <v>1.019367867127466</v>
       </c>
       <c r="D6">
-        <v>1.046803559598907</v>
+        <v>1.038649947810225</v>
       </c>
       <c r="E6">
-        <v>1.030302913095101</v>
+        <v>1.022640598079825</v>
       </c>
       <c r="F6">
-        <v>1.052097964765132</v>
+        <v>1.043922016410539</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061010814417612</v>
+        <v>1.055558429601985</v>
       </c>
       <c r="J6">
-        <v>1.046495822720221</v>
+        <v>1.037772436632897</v>
       </c>
       <c r="K6">
-        <v>1.056121354062042</v>
+        <v>1.048053922847881</v>
       </c>
       <c r="L6">
-        <v>1.039796846400652</v>
+        <v>1.032218699383599</v>
       </c>
       <c r="M6">
-        <v>1.061360672435183</v>
+        <v>1.053270079598541</v>
       </c>
       <c r="N6">
-        <v>1.047981966823233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016479364664153</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.045062585362782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02700766133143</v>
+        <v>1.018328968812384</v>
       </c>
       <c r="D7">
-        <v>1.045780947637694</v>
+        <v>1.037920310950947</v>
       </c>
       <c r="E7">
-        <v>1.029267231985666</v>
+        <v>1.021827919515915</v>
       </c>
       <c r="F7">
-        <v>1.050921421206811</v>
+        <v>1.043021972042962</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060540694091203</v>
+        <v>1.055269913782479</v>
       </c>
       <c r="J7">
-        <v>1.045739013389081</v>
+        <v>1.037269237318872</v>
       </c>
       <c r="K7">
-        <v>1.055353708525793</v>
+        <v>1.047578783273725</v>
       </c>
       <c r="L7">
-        <v>1.039021920037073</v>
+        <v>1.031666934140498</v>
       </c>
       <c r="M7">
-        <v>1.060438980322923</v>
+        <v>1.052624635908349</v>
       </c>
       <c r="N7">
-        <v>1.047224082736035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016311122108797</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044730796268033</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021506000275387</v>
+        <v>1.013907727423796</v>
       </c>
       <c r="D8">
-        <v>1.041428330898849</v>
+        <v>1.034816857560201</v>
       </c>
       <c r="E8">
-        <v>1.024865612018377</v>
+        <v>1.018379884720393</v>
       </c>
       <c r="F8">
-        <v>1.045917104638975</v>
+        <v>1.039198557472876</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05851760663312</v>
+        <v>1.054020229649887</v>
       </c>
       <c r="J8">
-        <v>1.042508234298497</v>
+        <v>1.035120046745077</v>
       </c>
       <c r="K8">
-        <v>1.052074913541306</v>
+        <v>1.04554499394066</v>
       </c>
       <c r="L8">
-        <v>1.035718975989369</v>
+        <v>1.029316513837183</v>
       </c>
       <c r="M8">
-        <v>1.056509047387386</v>
+        <v>1.049872500484399</v>
       </c>
       <c r="N8">
-        <v>1.043988715568567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015591837473673</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04329729545782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011388451549166</v>
+        <v>1.005820675386321</v>
       </c>
       <c r="D9">
-        <v>1.033444282188983</v>
+        <v>1.029161301543551</v>
       </c>
       <c r="E9">
-        <v>1.016816805271564</v>
+        <v>1.012116997597382</v>
       </c>
       <c r="F9">
-        <v>1.036750214146042</v>
+        <v>1.032240687392988</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054722970666089</v>
+        <v>1.051662302972429</v>
       </c>
       <c r="J9">
-        <v>1.03654536587755</v>
+        <v>1.031169551780906</v>
       </c>
       <c r="K9">
-        <v>1.0460170911851</v>
+        <v>1.041798333356059</v>
       </c>
       <c r="L9">
-        <v>1.029642808941643</v>
+        <v>1.02501649703779</v>
       </c>
       <c r="M9">
-        <v>1.049273912175977</v>
+        <v>1.044831475657266</v>
       </c>
       <c r="N9">
-        <v>1.038017379190511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014268731423431</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040645030239462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004330074926427</v>
+        <v>1.000227094197125</v>
       </c>
       <c r="D10">
-        <v>1.027891039075978</v>
+        <v>1.02527471451739</v>
       </c>
       <c r="E10">
-        <v>1.011235317933844</v>
+        <v>1.007818481310787</v>
       </c>
       <c r="F10">
-        <v>1.030382007720334</v>
+        <v>1.027459339930924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052027818560187</v>
+        <v>1.049991106800862</v>
       </c>
       <c r="J10">
-        <v>1.032372941899092</v>
+        <v>1.028431704937804</v>
       </c>
       <c r="K10">
-        <v>1.041774333283003</v>
+        <v>1.039202144110101</v>
       </c>
       <c r="L10">
-        <v>1.025404635683867</v>
+        <v>1.022047991118251</v>
       </c>
       <c r="M10">
-        <v>1.044223549591276</v>
+        <v>1.041349896601713</v>
       </c>
       <c r="N10">
-        <v>1.03383902989142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.013352615005932</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038826108613667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00119242851088</v>
+        <v>0.9977639969413608</v>
       </c>
       <c r="D11">
-        <v>1.025427119466731</v>
+        <v>1.02357665189605</v>
       </c>
       <c r="E11">
-        <v>1.008762810235569</v>
+        <v>1.005935479555791</v>
       </c>
       <c r="F11">
-        <v>1.027558164876103</v>
+        <v>1.025365801592128</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050818925665748</v>
+        <v>1.049251054014548</v>
       </c>
       <c r="J11">
-        <v>1.030515685062761</v>
+        <v>1.027230093015502</v>
       </c>
       <c r="K11">
-        <v>1.039884936751204</v>
+        <v>1.038067234746638</v>
       </c>
       <c r="L11">
-        <v>1.02352134344514</v>
+        <v>1.020746322826785</v>
       </c>
       <c r="M11">
-        <v>1.041978437992004</v>
+        <v>1.039824702153378</v>
       </c>
       <c r="N11">
-        <v>1.031979135537351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012952006823978</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038056384586979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000014111429156</v>
+        <v>0.9968346591100327</v>
       </c>
       <c r="D12">
-        <v>1.024502575100274</v>
+        <v>1.022932730877547</v>
       </c>
       <c r="E12">
-        <v>1.007835632460351</v>
+        <v>1.005225413870327</v>
       </c>
       <c r="F12">
-        <v>1.026498801074332</v>
+        <v>1.024574627361492</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050363357150877</v>
+        <v>1.048967463255027</v>
       </c>
       <c r="J12">
-        <v>1.029817874046163</v>
+        <v>1.026773588626108</v>
       </c>
       <c r="K12">
-        <v>1.03917493314231</v>
+        <v>1.037633380647333</v>
       </c>
       <c r="L12">
-        <v>1.022814238187613</v>
+        <v>1.020253183287161</v>
       </c>
       <c r="M12">
-        <v>1.041135345456685</v>
+        <v>1.039245689581985</v>
       </c>
       <c r="N12">
-        <v>1.03128033354907</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012799111427754</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037749637994743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000267456878264</v>
+        <v>0.9970331485899503</v>
       </c>
       <c r="D13">
-        <v>1.024701322485496</v>
+        <v>1.023069407222423</v>
       </c>
       <c r="E13">
-        <v>1.008034919374546</v>
+        <v>1.005376837722602</v>
       </c>
       <c r="F13">
-        <v>1.026726519906368</v>
+        <v>1.024743077574898</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050461377758626</v>
+        <v>1.049027519867261</v>
       </c>
       <c r="J13">
-        <v>1.029967922112609</v>
+        <v>1.026870521322942</v>
       </c>
       <c r="K13">
-        <v>1.039327608098368</v>
+        <v>1.037724992568716</v>
       </c>
       <c r="L13">
-        <v>1.022966262682616</v>
+        <v>1.020358055580839</v>
       </c>
       <c r="M13">
-        <v>1.041316612849768</v>
+        <v>1.039368615098952</v>
       </c>
       <c r="N13">
-        <v>1.031430594700981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012831432869489</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037811926769008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001095294535314</v>
+        <v>0.9976868203875173</v>
       </c>
       <c r="D14">
-        <v>1.025350889299472</v>
+        <v>1.023522811645689</v>
       </c>
       <c r="E14">
-        <v>1.008686350978598</v>
+        <v>1.005876411579774</v>
       </c>
       <c r="F14">
-        <v>1.027470813924291</v>
+        <v>1.025299870783865</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050781402924179</v>
+        <v>1.049227285280801</v>
       </c>
       <c r="J14">
-        <v>1.030458167899601</v>
+        <v>1.027191940062824</v>
       </c>
       <c r="K14">
-        <v>1.039826416943581</v>
+        <v>1.038030755932167</v>
       </c>
       <c r="L14">
-        <v>1.023463050272227</v>
+        <v>1.020705176401287</v>
       </c>
       <c r="M14">
-        <v>1.041908936945248</v>
+        <v>1.039776301087105</v>
       </c>
       <c r="N14">
-        <v>1.031921536693222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012939167129292</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038029529255958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001603629386461</v>
+        <v>0.9980909181993787</v>
       </c>
       <c r="D15">
-        <v>1.02574985883898</v>
+        <v>1.023804843849238</v>
       </c>
       <c r="E15">
-        <v>1.009086543524567</v>
+        <v>1.006185762791394</v>
       </c>
       <c r="F15">
-        <v>1.027927996379278</v>
+        <v>1.025645184173996</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050977707996966</v>
+        <v>1.049351742338122</v>
       </c>
       <c r="J15">
-        <v>1.030759161260406</v>
+        <v>1.027391762380447</v>
       </c>
       <c r="K15">
-        <v>1.040132652526162</v>
+        <v>1.038221863202808</v>
       </c>
       <c r="L15">
-        <v>1.023768124474475</v>
+        <v>1.020920675326929</v>
       </c>
       <c r="M15">
-        <v>1.042272661334446</v>
+        <v>1.040029815497263</v>
       </c>
       <c r="N15">
-        <v>1.032222957499124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013006428675258</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038170496503537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004536543312377</v>
+        <v>1.000410546885734</v>
       </c>
       <c r="D16">
-        <v>1.028053275932362</v>
+        <v>1.025415400102166</v>
       </c>
       <c r="E16">
-        <v>1.011398202273322</v>
+        <v>1.007961874751387</v>
       </c>
       <c r="F16">
-        <v>1.030567977285852</v>
+        <v>1.027623704136909</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052107146353519</v>
+        <v>1.050056061964814</v>
       </c>
       <c r="J16">
-        <v>1.032495107466196</v>
+        <v>1.028531152459506</v>
       </c>
       <c r="K16">
-        <v>1.041898596243204</v>
+        <v>1.039305072643181</v>
       </c>
       <c r="L16">
-        <v>1.025528581321086</v>
+        <v>1.02215258799166</v>
       </c>
       <c r="M16">
-        <v>1.044371288669949</v>
+        <v>1.041476227093679</v>
       </c>
       <c r="N16">
-        <v>1.033961368947642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013388203765362</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038939512525771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006354072924019</v>
+        <v>1.001851205226811</v>
       </c>
       <c r="D17">
-        <v>1.029481975161177</v>
+        <v>1.026417240755135</v>
       </c>
       <c r="E17">
-        <v>1.012833052752233</v>
+        <v>1.009067170146841</v>
       </c>
       <c r="F17">
-        <v>1.032205861268938</v>
+        <v>1.02885451891351</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052804237029724</v>
+        <v>1.050490974492497</v>
       </c>
       <c r="J17">
-        <v>1.033570244474945</v>
+        <v>1.029238429754298</v>
       </c>
       <c r="K17">
-        <v>1.042992097879128</v>
+        <v>1.039977409391725</v>
       </c>
       <c r="L17">
-        <v>1.026619752276315</v>
+        <v>1.022918065093047</v>
       </c>
       <c r="M17">
-        <v>1.045671824183278</v>
+        <v>1.042374856561609</v>
       </c>
       <c r="N17">
-        <v>1.035038032774263</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013625214435312</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039417451735279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007406405920755</v>
+        <v>1.002679947017777</v>
       </c>
       <c r="D18">
-        <v>1.030309616692306</v>
+        <v>1.026989773373139</v>
       </c>
       <c r="E18">
-        <v>1.013664632914305</v>
+        <v>1.009702878473049</v>
       </c>
       <c r="F18">
-        <v>1.033154842572872</v>
+        <v>1.02956071833757</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053206815013998</v>
+        <v>1.050737143421855</v>
       </c>
       <c r="J18">
-        <v>1.034192498922398</v>
+        <v>1.029642090104773</v>
       </c>
       <c r="K18">
-        <v>1.043624901649663</v>
+        <v>1.040358341780454</v>
       </c>
       <c r="L18">
-        <v>1.027251593174918</v>
+        <v>1.023356203367824</v>
       </c>
       <c r="M18">
-        <v>1.046424810758672</v>
+        <v>1.042887984617678</v>
       </c>
       <c r="N18">
-        <v>1.035661170894405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013759760313488</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039675193915289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007763919740344</v>
+        <v>1.002966694698728</v>
       </c>
       <c r="D19">
-        <v>1.030590867546168</v>
+        <v>1.027191327053857</v>
       </c>
       <c r="E19">
-        <v>1.013947285950714</v>
+        <v>1.009923658592739</v>
       </c>
       <c r="F19">
-        <v>1.033477354872688</v>
+        <v>1.029807156057113</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053343408359331</v>
+        <v>1.050824575264186</v>
       </c>
       <c r="J19">
-        <v>1.034403858294175</v>
+        <v>1.029784115722036</v>
       </c>
       <c r="K19">
-        <v>1.043839830555889</v>
+        <v>1.040494529490039</v>
       </c>
       <c r="L19">
-        <v>1.0274662606787</v>
+        <v>1.023509630806662</v>
       </c>
       <c r="M19">
-        <v>1.04668062276421</v>
+        <v>1.043068582427953</v>
       </c>
       <c r="N19">
-        <v>1.035872830420734</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013807673074703</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03977784701018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006159880597648</v>
+        <v>1.001696658996968</v>
       </c>
       <c r="D20">
-        <v>1.029329281233415</v>
+        <v>1.026309375717129</v>
       </c>
       <c r="E20">
-        <v>1.012679662511809</v>
+        <v>1.008948449138473</v>
       </c>
       <c r="F20">
-        <v>1.03203079402283</v>
+        <v>1.028722212906019</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05272986362896</v>
+        <v>1.050444174375914</v>
       </c>
       <c r="J20">
-        <v>1.033455397030252</v>
+        <v>1.029162333593612</v>
       </c>
       <c r="K20">
-        <v>1.042875296897245</v>
+        <v>1.039904861335782</v>
       </c>
       <c r="L20">
-        <v>1.026503160249989</v>
+        <v>1.022835754901777</v>
       </c>
       <c r="M20">
-        <v>1.045532870459194</v>
+        <v>1.042278143154262</v>
       </c>
       <c r="N20">
-        <v>1.034923022233026</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013599656494522</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039364828391064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000851877183423</v>
+        <v>0.997501497560734</v>
       </c>
       <c r="D21">
-        <v>1.025159869268381</v>
+        <v>1.023398794665129</v>
       </c>
       <c r="E21">
-        <v>1.008494766369367</v>
+        <v>1.005735721361093</v>
       </c>
       <c r="F21">
-        <v>1.027251930816584</v>
+        <v>1.025144657529534</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050687345811141</v>
+        <v>1.049173922206007</v>
       </c>
       <c r="J21">
-        <v>1.030314024889609</v>
+        <v>1.027104052830467</v>
       </c>
       <c r="K21">
-        <v>1.039679759361988</v>
+        <v>1.03795002758392</v>
       </c>
       <c r="L21">
-        <v>1.023316970381592</v>
+        <v>1.02060923747162</v>
       </c>
       <c r="M21">
-        <v>1.041734768439253</v>
+        <v>1.039664817756643</v>
       </c>
       <c r="N21">
-        <v>1.031777188983622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012910508827535</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.037985912454573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9974398001741503</v>
+        <v>0.9948070853296883</v>
       </c>
       <c r="D22">
-        <v>1.022484157445818</v>
+        <v>1.021529045614734</v>
       </c>
       <c r="E22">
-        <v>1.005812544476972</v>
+        <v>1.003678502465535</v>
       </c>
       <c r="F22">
-        <v>1.024186468857136</v>
+        <v>1.022850356098384</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04936521187182</v>
+        <v>1.0483458049183</v>
       </c>
       <c r="J22">
-        <v>1.028292775614322</v>
+        <v>1.025776904825175</v>
       </c>
       <c r="K22">
-        <v>1.037622981189139</v>
+        <v>1.036685741667664</v>
       </c>
       <c r="L22">
-        <v>1.021269726507599</v>
+        <v>1.019177438030657</v>
       </c>
       <c r="M22">
-        <v>1.03929354631484</v>
+        <v>1.037982338986428</v>
       </c>
       <c r="N22">
-        <v>1.029753069302525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012465229289287</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037078565585788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9992559137364558</v>
+        <v>0.9962318145871756</v>
       </c>
       <c r="D23">
-        <v>1.023907891608741</v>
+        <v>1.022511758269682</v>
       </c>
       <c r="E23">
-        <v>1.007239420678888</v>
+        <v>1.004764407085569</v>
       </c>
       <c r="F23">
-        <v>1.025817463816958</v>
+        <v>1.024059663268534</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050069779085068</v>
+        <v>1.048780597143001</v>
       </c>
       <c r="J23">
-        <v>1.029368773225759</v>
+        <v>1.02647489643138</v>
       </c>
       <c r="K23">
-        <v>1.03871795340378</v>
+        <v>1.037347264985023</v>
       </c>
       <c r="L23">
-        <v>1.022359293508245</v>
+        <v>1.019931429104048</v>
       </c>
       <c r="M23">
-        <v>1.040592868975251</v>
+        <v>1.038866964422803</v>
       </c>
       <c r="N23">
-        <v>1.030830594953988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.01269844880237</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037536691314256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006247651813042</v>
+        <v>1.001752838156428</v>
       </c>
       <c r="D24">
-        <v>1.029398294614352</v>
+        <v>1.026339533789281</v>
       </c>
       <c r="E24">
-        <v>1.012748989443401</v>
+        <v>1.008989731674497</v>
       </c>
       <c r="F24">
-        <v>1.032109919021525</v>
+        <v>1.028765000453756</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052763482182855</v>
+        <v>1.050454700277916</v>
       </c>
       <c r="J24">
-        <v>1.033507306624719</v>
+        <v>1.029183580571666</v>
       </c>
       <c r="K24">
-        <v>1.042928089713024</v>
+        <v>1.039919365053961</v>
       </c>
       <c r="L24">
-        <v>1.026555857423141</v>
+        <v>1.022860795568602</v>
       </c>
       <c r="M24">
-        <v>1.045595674923305</v>
+        <v>1.042305123788636</v>
       </c>
       <c r="N24">
-        <v>1.034975005545071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013605261220359</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039347805835982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014057076933094</v>
+        <v>1.007960658955966</v>
       </c>
       <c r="D25">
-        <v>1.035547501805123</v>
+        <v>1.030663652726282</v>
       </c>
       <c r="E25">
-        <v>1.018934167312447</v>
+        <v>1.013770566063072</v>
       </c>
       <c r="F25">
-        <v>1.039163632117998</v>
+        <v>1.034082433171311</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055732283504104</v>
+        <v>1.052300689290876</v>
       </c>
       <c r="J25">
-        <v>1.038120451654782</v>
+        <v>1.032223053417712</v>
       </c>
       <c r="K25">
-        <v>1.047617958541803</v>
+        <v>1.042803898579583</v>
       </c>
       <c r="L25">
-        <v>1.031245496854532</v>
+        <v>1.026158807658664</v>
       </c>
       <c r="M25">
-        <v>1.051182949246475</v>
+        <v>1.0461737378357</v>
       </c>
       <c r="N25">
-        <v>1.039594701770211</v>
+        <v>1.014623041929191</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041384451385104</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_44/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_44/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012739112856967</v>
+        <v>1.011908510580783</v>
       </c>
       <c r="D2">
-        <v>1.033990450476663</v>
+        <v>1.032505862407123</v>
       </c>
       <c r="E2">
-        <v>1.01747004704409</v>
+        <v>1.016758946979467</v>
       </c>
       <c r="F2">
-        <v>1.038185956901525</v>
+        <v>1.036883803863681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053679483821662</v>
+        <v>1.05288779608616</v>
       </c>
       <c r="J2">
-        <v>1.034545362680551</v>
+        <v>1.033738781921855</v>
       </c>
       <c r="K2">
-        <v>1.04499571506119</v>
+        <v>1.043530178261107</v>
       </c>
       <c r="L2">
-        <v>1.02869124554211</v>
+        <v>1.027989637879337</v>
       </c>
       <c r="M2">
-        <v>1.049137749621625</v>
+        <v>1.047852134727577</v>
       </c>
       <c r="N2">
-        <v>1.015398306112939</v>
+        <v>1.016137184171289</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042886146270284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041858621882668</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023608122126195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016141552045386</v>
+        <v>1.015185941791688</v>
       </c>
       <c r="D3">
-        <v>1.036376303010321</v>
+        <v>1.034720975404579</v>
       </c>
       <c r="E3">
-        <v>1.020118459510827</v>
+        <v>1.019297555931647</v>
       </c>
       <c r="F3">
-        <v>1.041124167859053</v>
+        <v>1.039666364494476</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05464981797259</v>
+        <v>1.053758505227874</v>
       </c>
       <c r="J3">
-        <v>1.036201649324301</v>
+        <v>1.035271012722772</v>
       </c>
       <c r="K3">
-        <v>1.046563973416431</v>
+        <v>1.044928063552204</v>
       </c>
       <c r="L3">
-        <v>1.030500233027432</v>
+        <v>1.029689334329546</v>
       </c>
       <c r="M3">
-        <v>1.05125656698923</v>
+        <v>1.049815667949204</v>
       </c>
       <c r="N3">
-        <v>1.015952767968084</v>
+        <v>1.016544414813678</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043992378762542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042844111858967</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023881778728371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018307765177854</v>
+        <v>1.017273230828127</v>
       </c>
       <c r="D4">
-        <v>1.037899043604897</v>
+        <v>1.03613545448757</v>
       </c>
       <c r="E4">
-        <v>1.021810250753884</v>
+        <v>1.020919939202412</v>
       </c>
       <c r="F4">
-        <v>1.042999907708008</v>
+        <v>1.041443567182582</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055259235775382</v>
+        <v>1.054304662087814</v>
       </c>
       <c r="J4">
-        <v>1.037254473771406</v>
+        <v>1.036245173627437</v>
       </c>
       <c r="K4">
-        <v>1.047560605336914</v>
+        <v>1.04581647316747</v>
       </c>
       <c r="L4">
-        <v>1.031652383022824</v>
+        <v>1.03077226884769</v>
       </c>
       <c r="M4">
-        <v>1.052605648286685</v>
+        <v>1.051066268364826</v>
       </c>
       <c r="N4">
-        <v>1.016305275292504</v>
+        <v>1.016803404118737</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044697964537537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043473259124403</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024053452973995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019212975040404</v>
+        <v>1.018145595696848</v>
       </c>
       <c r="D5">
-        <v>1.038538176402351</v>
+        <v>1.036729489930652</v>
       </c>
       <c r="E5">
-        <v>1.022518868829112</v>
+        <v>1.021599651076926</v>
       </c>
       <c r="F5">
-        <v>1.043786058745216</v>
+        <v>1.042188694518611</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055513310611299</v>
+        <v>1.054532351668996</v>
       </c>
       <c r="J5">
-        <v>1.037695364839037</v>
+        <v>1.036653254269191</v>
       </c>
       <c r="K5">
-        <v>1.047979193562192</v>
+        <v>1.046189937249962</v>
       </c>
       <c r="L5">
-        <v>1.032134917640907</v>
+        <v>1.031225948411148</v>
       </c>
       <c r="M5">
-        <v>1.053171165902847</v>
+        <v>1.051590746749506</v>
       </c>
       <c r="N5">
-        <v>1.016453179533828</v>
+        <v>1.016912123025951</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045001060408644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043745160680878</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024125512834068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019367867127466</v>
+        <v>1.018294857843176</v>
       </c>
       <c r="D6">
-        <v>1.038649947810225</v>
+        <v>1.036833599775137</v>
       </c>
       <c r="E6">
-        <v>1.022640598079825</v>
+        <v>1.021716419347749</v>
       </c>
       <c r="F6">
-        <v>1.043922016410539</v>
+        <v>1.042317669615775</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055558429601985</v>
+        <v>1.054572972579776</v>
       </c>
       <c r="J6">
-        <v>1.037772436632897</v>
+        <v>1.036724700677263</v>
       </c>
       <c r="K6">
-        <v>1.048053922847881</v>
+        <v>1.04625699903155</v>
       </c>
       <c r="L6">
-        <v>1.032218699383599</v>
+        <v>1.031304777372803</v>
       </c>
       <c r="M6">
-        <v>1.053270079598541</v>
+        <v>1.051682674134037</v>
       </c>
       <c r="N6">
-        <v>1.016479364664153</v>
+        <v>1.016931411303611</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045062585362782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.043802133652987</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02413895219119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018328968812384</v>
+        <v>1.017300302133668</v>
       </c>
       <c r="D7">
-        <v>1.037920310950947</v>
+        <v>1.036160693320779</v>
       </c>
       <c r="E7">
-        <v>1.021827919515915</v>
+        <v>1.020942837436358</v>
       </c>
       <c r="F7">
-        <v>1.043021972042962</v>
+        <v>1.041469980354901</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055269913782479</v>
+        <v>1.054318365240015</v>
       </c>
       <c r="J7">
-        <v>1.037269237318872</v>
+        <v>1.036265650982937</v>
       </c>
       <c r="K7">
-        <v>1.047578783273725</v>
+        <v>1.045838571245115</v>
       </c>
       <c r="L7">
-        <v>1.031666934140498</v>
+        <v>1.030791985655563</v>
       </c>
       <c r="M7">
-        <v>1.052624635908349</v>
+        <v>1.051089550844925</v>
       </c>
       <c r="N7">
-        <v>1.016311122108797</v>
+        <v>1.016835313311868</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044730796268033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043510863006985</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02405970323201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013907727423796</v>
+        <v>1.013054466600914</v>
       </c>
       <c r="D8">
-        <v>1.034816857560201</v>
+        <v>1.033288692709053</v>
       </c>
       <c r="E8">
-        <v>1.018379884720393</v>
+        <v>1.017649176708797</v>
       </c>
       <c r="F8">
-        <v>1.039198557472876</v>
+        <v>1.037858950627961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054020229649887</v>
+        <v>1.053205349663571</v>
       </c>
       <c r="J8">
-        <v>1.035120046745077</v>
+        <v>1.034290646650426</v>
       </c>
       <c r="K8">
-        <v>1.04554499394066</v>
+        <v>1.04403586431284</v>
       </c>
       <c r="L8">
-        <v>1.029316513837183</v>
+        <v>1.028595270064624</v>
       </c>
       <c r="M8">
-        <v>1.049872500484399</v>
+        <v>1.048549401604325</v>
       </c>
       <c r="N8">
-        <v>1.015591837473673</v>
+        <v>1.016363053557439</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04329729545782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042241216451261</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023711015074447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005820675386321</v>
+        <v>1.005271739470683</v>
       </c>
       <c r="D9">
-        <v>1.029161301543551</v>
+        <v>1.028043693960843</v>
       </c>
       <c r="E9">
-        <v>1.012116997597382</v>
+        <v>1.011653063094167</v>
       </c>
       <c r="F9">
-        <v>1.032240687392988</v>
+        <v>1.031276759633291</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051662302972429</v>
+        <v>1.051086755954673</v>
       </c>
       <c r="J9">
-        <v>1.031169551780906</v>
+        <v>1.030639702668863</v>
       </c>
       <c r="K9">
-        <v>1.041798333356059</v>
+        <v>1.040697596311305</v>
       </c>
       <c r="L9">
-        <v>1.02501649703779</v>
+        <v>1.024559864952708</v>
       </c>
       <c r="M9">
-        <v>1.044831475657266</v>
+        <v>1.04388198553998</v>
       </c>
       <c r="N9">
-        <v>1.014268731423431</v>
+        <v>1.015401852500744</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040645030239462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039877428389111</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023043584964651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000227094197125</v>
+        <v>0.9999229173358957</v>
       </c>
       <c r="D10">
-        <v>1.02527471451739</v>
+        <v>1.024465778541216</v>
       </c>
       <c r="E10">
-        <v>1.007818481310787</v>
+        <v>1.007568858470316</v>
       </c>
       <c r="F10">
-        <v>1.027459339930924</v>
+        <v>1.026782316245491</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049991106800862</v>
+        <v>1.049598129915651</v>
       </c>
       <c r="J10">
-        <v>1.028431704937804</v>
+        <v>1.028139593891723</v>
       </c>
       <c r="K10">
-        <v>1.039202144110101</v>
+        <v>1.038406913153418</v>
       </c>
       <c r="L10">
-        <v>1.022047991118251</v>
+        <v>1.021802786468394</v>
       </c>
       <c r="M10">
-        <v>1.041349896601713</v>
+        <v>1.040684278332286</v>
       </c>
       <c r="N10">
-        <v>1.013352615005932</v>
+        <v>1.014854570443004</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038826108613667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038276196823347</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02257694538466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9977639969413608</v>
+        <v>0.9976163816320502</v>
       </c>
       <c r="D11">
-        <v>1.02357665189605</v>
+        <v>1.02293940334366</v>
       </c>
       <c r="E11">
-        <v>1.005935479555791</v>
+        <v>1.005823636731547</v>
       </c>
       <c r="F11">
-        <v>1.025365801592128</v>
+        <v>1.02485352404207</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049251054014548</v>
+        <v>1.048964168796566</v>
       </c>
       <c r="J11">
-        <v>1.027230093015502</v>
+        <v>1.02708865922027</v>
       </c>
       <c r="K11">
-        <v>1.038067234746638</v>
+        <v>1.037441305337482</v>
       </c>
       <c r="L11">
-        <v>1.020746322826785</v>
+        <v>1.020636557157413</v>
       </c>
       <c r="M11">
-        <v>1.039824702153378</v>
+        <v>1.039321481362462</v>
       </c>
       <c r="N11">
-        <v>1.012952006823978</v>
+        <v>1.014804659224622</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038056384586979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037629396234118</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022383143742398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9968346591100327</v>
+        <v>0.996750736057105</v>
       </c>
       <c r="D12">
-        <v>1.022932730877547</v>
+        <v>1.022363531099989</v>
       </c>
       <c r="E12">
-        <v>1.005225413870327</v>
+        <v>1.005169714552207</v>
       </c>
       <c r="F12">
-        <v>1.024574627361492</v>
+        <v>1.024128084359472</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048967463255027</v>
+        <v>1.048722961472593</v>
       </c>
       <c r="J12">
-        <v>1.026773588626108</v>
+        <v>1.026693250023276</v>
       </c>
       <c r="K12">
-        <v>1.037633380647333</v>
+        <v>1.037074466894538</v>
       </c>
       <c r="L12">
-        <v>1.020253183287161</v>
+        <v>1.020198536706876</v>
       </c>
       <c r="M12">
-        <v>1.039245689581985</v>
+        <v>1.038807181234595</v>
       </c>
       <c r="N12">
-        <v>1.012799111427754</v>
+        <v>1.01480133872789</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037749637994743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037370036648437</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0223086208425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9970331485899503</v>
+        <v>0.9969354374976167</v>
       </c>
       <c r="D13">
-        <v>1.023069407222423</v>
+        <v>1.0224855204299</v>
       </c>
       <c r="E13">
-        <v>1.005376837722602</v>
+        <v>1.005308987484316</v>
       </c>
       <c r="F13">
-        <v>1.024743077574898</v>
+        <v>1.024282336683148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049027519867261</v>
+        <v>1.048773864701274</v>
       </c>
       <c r="J13">
-        <v>1.026870521322942</v>
+        <v>1.026776966026219</v>
       </c>
       <c r="K13">
-        <v>1.037724992568716</v>
+        <v>1.037151618524651</v>
       </c>
       <c r="L13">
-        <v>1.020358055580839</v>
+        <v>1.020291482950837</v>
       </c>
       <c r="M13">
-        <v>1.039368615098952</v>
+        <v>1.038916133278719</v>
       </c>
       <c r="N13">
-        <v>1.012831432869489</v>
+        <v>1.014800974886463</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037811926769008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037421858070347</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022324116939499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9976868203875173</v>
+        <v>0.9975444082032582</v>
       </c>
       <c r="D14">
-        <v>1.023522811645689</v>
+        <v>1.022891143363944</v>
       </c>
       <c r="E14">
-        <v>1.005876411579774</v>
+        <v>1.00576915627744</v>
       </c>
       <c r="F14">
-        <v>1.025299870783865</v>
+        <v>1.024792978731283</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049227285280801</v>
+        <v>1.048943872739106</v>
       </c>
       <c r="J14">
-        <v>1.027191940062824</v>
+        <v>1.02705550130746</v>
       </c>
       <c r="K14">
-        <v>1.038030755932167</v>
+        <v>1.037410323757851</v>
       </c>
       <c r="L14">
-        <v>1.020705176401287</v>
+        <v>1.020599915958175</v>
       </c>
       <c r="M14">
-        <v>1.039776301087105</v>
+        <v>1.039278383695496</v>
       </c>
       <c r="N14">
-        <v>1.012939167129292</v>
+        <v>1.014803899008218</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038029529255958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037606324128415</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022376773875662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9980909181993787</v>
+        <v>0.9979214433568818</v>
       </c>
       <c r="D15">
-        <v>1.023804843849238</v>
+        <v>1.023144091286075</v>
       </c>
       <c r="E15">
-        <v>1.006185762791394</v>
+        <v>1.006054649153297</v>
       </c>
       <c r="F15">
-        <v>1.025645184173996</v>
+        <v>1.02511023777413</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049351742338122</v>
+        <v>1.04905024085695</v>
       </c>
       <c r="J15">
-        <v>1.027391762380447</v>
+        <v>1.02722933510141</v>
       </c>
       <c r="K15">
-        <v>1.038221863202808</v>
+        <v>1.037572776045903</v>
       </c>
       <c r="L15">
-        <v>1.020920675326929</v>
+        <v>1.020791981714743</v>
       </c>
       <c r="M15">
-        <v>1.040029815497263</v>
+        <v>1.039504268045869</v>
       </c>
       <c r="N15">
-        <v>1.013006428675258</v>
+        <v>1.014808594152416</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038170496503537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037727600385713</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022410193114972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000410546885734</v>
+        <v>1.000095476674828</v>
       </c>
       <c r="D16">
-        <v>1.025415400102166</v>
+        <v>1.024594574113303</v>
       </c>
       <c r="E16">
-        <v>1.007961874751387</v>
+        <v>1.007702596532469</v>
       </c>
       <c r="F16">
-        <v>1.027623704136909</v>
+        <v>1.026935242710654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050056061964814</v>
+        <v>1.049655698355385</v>
       </c>
       <c r="J16">
-        <v>1.028531152459506</v>
+        <v>1.028228533879251</v>
       </c>
       <c r="K16">
-        <v>1.039305072643181</v>
+        <v>1.038498107817921</v>
       </c>
       <c r="L16">
-        <v>1.02215258799166</v>
+        <v>1.021897883763815</v>
       </c>
       <c r="M16">
-        <v>1.041476227093679</v>
+        <v>1.040799325329742</v>
       </c>
       <c r="N16">
-        <v>1.013388203765362</v>
+        <v>1.014867428175517</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038939512525771</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038385289490134</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02259839112217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001851205226811</v>
+        <v>1.001455410849693</v>
       </c>
       <c r="D17">
-        <v>1.026417240755135</v>
+        <v>1.025504067637206</v>
       </c>
       <c r="E17">
-        <v>1.009067170146841</v>
+        <v>1.008736939024546</v>
       </c>
       <c r="F17">
-        <v>1.02885451891351</v>
+        <v>1.028078339494534</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050490974492497</v>
+        <v>1.050034264636585</v>
       </c>
       <c r="J17">
-        <v>1.029238429754298</v>
+        <v>1.02885777442757</v>
       </c>
       <c r="K17">
-        <v>1.039977409391725</v>
+        <v>1.039079222423004</v>
       </c>
       <c r="L17">
-        <v>1.022918065093047</v>
+        <v>1.022593492823657</v>
       </c>
       <c r="M17">
-        <v>1.042374856561609</v>
+        <v>1.041611335443139</v>
       </c>
       <c r="N17">
-        <v>1.013625214435312</v>
+        <v>1.01494059257275</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039417451735279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038798977441339</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022716676165672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002679947017777</v>
+        <v>1.002241581227935</v>
       </c>
       <c r="D18">
-        <v>1.026989773373139</v>
+        <v>1.026026190071384</v>
       </c>
       <c r="E18">
-        <v>1.009702878473049</v>
+        <v>1.00933529006855</v>
       </c>
       <c r="F18">
-        <v>1.02956071833757</v>
+        <v>1.028737042676507</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050737143421855</v>
+        <v>1.050250008037776</v>
       </c>
       <c r="J18">
-        <v>1.029642090104773</v>
+        <v>1.029220170980689</v>
       </c>
       <c r="K18">
-        <v>1.040358341780454</v>
+        <v>1.039410306853048</v>
       </c>
       <c r="L18">
-        <v>1.023356203367824</v>
+        <v>1.022994806622051</v>
       </c>
       <c r="M18">
-        <v>1.042887984617678</v>
+        <v>1.042077512447344</v>
       </c>
       <c r="N18">
-        <v>1.013759760313488</v>
+        <v>1.014995503023386</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039675193915289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039020337784254</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022783170245462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002966694698728</v>
+        <v>1.002514233976033</v>
       </c>
       <c r="D19">
-        <v>1.027191327053857</v>
+        <v>1.02621084536396</v>
       </c>
       <c r="E19">
-        <v>1.009923658592739</v>
+        <v>1.009543693281288</v>
       </c>
       <c r="F19">
-        <v>1.029807156057113</v>
+        <v>1.028967599667605</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050824575264186</v>
+        <v>1.050327273601998</v>
       </c>
       <c r="J19">
-        <v>1.029784115722036</v>
+        <v>1.029348518027477</v>
       </c>
       <c r="K19">
-        <v>1.040494529490039</v>
+        <v>1.039529776959832</v>
       </c>
       <c r="L19">
-        <v>1.023509630806662</v>
+        <v>1.023136027874952</v>
       </c>
       <c r="M19">
-        <v>1.043068582427953</v>
+        <v>1.042242404497003</v>
       </c>
       <c r="N19">
-        <v>1.013807673074703</v>
+        <v>1.015018377363272</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03977784701018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039111793078518</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022807920896412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001696658996968</v>
+        <v>1.001309134623017</v>
       </c>
       <c r="D20">
-        <v>1.026309375717129</v>
+        <v>1.025405817208318</v>
       </c>
       <c r="E20">
-        <v>1.008948449138473</v>
+        <v>1.008625484370885</v>
       </c>
       <c r="F20">
-        <v>1.028722212906019</v>
+        <v>1.027955132062606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050444174375914</v>
+        <v>1.049993302522766</v>
       </c>
       <c r="J20">
-        <v>1.029162333593612</v>
+        <v>1.028789684435059</v>
       </c>
       <c r="K20">
-        <v>1.039904861335782</v>
+        <v>1.03901617714299</v>
       </c>
       <c r="L20">
-        <v>1.022835754901777</v>
+        <v>1.022518341902515</v>
       </c>
       <c r="M20">
-        <v>1.042278143154262</v>
+        <v>1.041523611734515</v>
       </c>
       <c r="N20">
-        <v>1.013599656494522</v>
+        <v>1.01493111888131</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039364828391064</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038752943568612</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022703765411647</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.997501497560734</v>
+        <v>0.9973880429071882</v>
       </c>
       <c r="D21">
-        <v>1.023398794665129</v>
+        <v>1.022792712972675</v>
       </c>
       <c r="E21">
-        <v>1.005735721361093</v>
+        <v>1.005654215252189</v>
       </c>
       <c r="F21">
-        <v>1.025144657529534</v>
+        <v>1.02466369688783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049173922206007</v>
+        <v>1.048907670644706</v>
       </c>
       <c r="J21">
-        <v>1.027104052830467</v>
+        <v>1.026995376349101</v>
       </c>
       <c r="K21">
-        <v>1.03795002758392</v>
+        <v>1.037354765081649</v>
       </c>
       <c r="L21">
-        <v>1.02060923747162</v>
+        <v>1.02052925278275</v>
       </c>
       <c r="M21">
-        <v>1.039664817756643</v>
+        <v>1.039192403490279</v>
       </c>
       <c r="N21">
-        <v>1.012910508827535</v>
+        <v>1.014870114108644</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037985912454573</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037581816186565</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022367834056478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9948070853296883</v>
+        <v>0.9948686114893125</v>
       </c>
       <c r="D22">
-        <v>1.021529045614734</v>
+        <v>1.021113043457547</v>
       </c>
       <c r="E22">
-        <v>1.003678502465535</v>
+        <v>1.003751156564448</v>
       </c>
       <c r="F22">
-        <v>1.022850356098384</v>
+        <v>1.022552366040402</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.0483458049183</v>
+        <v>1.048197083198172</v>
       </c>
       <c r="J22">
-        <v>1.025776904825175</v>
+        <v>1.025835690251748</v>
       </c>
       <c r="K22">
-        <v>1.036685741667664</v>
+        <v>1.036277537503262</v>
       </c>
       <c r="L22">
-        <v>1.019177438030657</v>
+        <v>1.01924866678642</v>
       </c>
       <c r="M22">
-        <v>1.037982338986428</v>
+        <v>1.037689915113272</v>
       </c>
       <c r="N22">
-        <v>1.012465229289287</v>
+        <v>1.014818149521056</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037078565585788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036805427583784</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022146553373826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9962318145871756</v>
+        <v>0.9961902860903044</v>
       </c>
       <c r="D23">
-        <v>1.022511758269682</v>
+        <v>1.02198740928894</v>
       </c>
       <c r="E23">
-        <v>1.004764407085569</v>
+        <v>1.004746126504181</v>
       </c>
       <c r="F23">
-        <v>1.024059663268534</v>
+        <v>1.023656561359871</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048780597143001</v>
+        <v>1.048564114737601</v>
       </c>
       <c r="J23">
-        <v>1.02647489643138</v>
+        <v>1.026435164073442</v>
       </c>
       <c r="K23">
-        <v>1.037347264985023</v>
+        <v>1.036832495791326</v>
       </c>
       <c r="L23">
-        <v>1.019931429104048</v>
+        <v>1.019913497899918</v>
       </c>
       <c r="M23">
-        <v>1.038866964422803</v>
+        <v>1.038471197052811</v>
       </c>
       <c r="N23">
-        <v>1.01269844880237</v>
+        <v>1.014801541739225</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037536691314256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037187264234696</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022258687680417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001752838156428</v>
+        <v>1.001362387023286</v>
       </c>
       <c r="D24">
-        <v>1.026339533789281</v>
+        <v>1.025432319600161</v>
       </c>
       <c r="E24">
-        <v>1.008989731674497</v>
+        <v>1.008664240615765</v>
       </c>
       <c r="F24">
-        <v>1.028765000453756</v>
+        <v>1.027994526304486</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050454700277916</v>
+        <v>1.050001672582756</v>
       </c>
       <c r="J24">
-        <v>1.029183580571666</v>
+        <v>1.028808093649297</v>
       </c>
       <c r="K24">
-        <v>1.039919365053961</v>
+        <v>1.039027065188559</v>
       </c>
       <c r="L24">
-        <v>1.022860795568602</v>
+        <v>1.022540891936032</v>
       </c>
       <c r="M24">
-        <v>1.042305123788636</v>
+        <v>1.041547237164884</v>
       </c>
       <c r="N24">
-        <v>1.013605261220359</v>
+        <v>1.014930924279417</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039347805835982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038730690457683</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022704030664055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007960658955966</v>
+        <v>1.007322162707148</v>
       </c>
       <c r="D25">
-        <v>1.030663652726282</v>
+        <v>1.029431101731933</v>
       </c>
       <c r="E25">
-        <v>1.013770566063072</v>
+        <v>1.013228058568478</v>
       </c>
       <c r="F25">
-        <v>1.034082433171311</v>
+        <v>1.033012157118046</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052300689290876</v>
+        <v>1.051657268435731</v>
       </c>
       <c r="J25">
-        <v>1.032223053417712</v>
+        <v>1.031605594819519</v>
       </c>
       <c r="K25">
-        <v>1.042803898579583</v>
+        <v>1.041589093038181</v>
       </c>
       <c r="L25">
-        <v>1.026158807658664</v>
+        <v>1.02562443875479</v>
       </c>
       <c r="M25">
-        <v>1.0461737378357</v>
+        <v>1.045118739119436</v>
       </c>
       <c r="N25">
-        <v>1.014623041929191</v>
+        <v>1.015626937866456</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041384451385104</v>
+        <v>1.040539002032309</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.023225335343163</v>
       </c>
     </row>
   </sheetData>
